--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Cromatogramas" sheetId="1" r:id="rId1"/>
-    <sheet name="Picos" sheetId="2" r:id="rId2"/>
+    <sheet name="Secuencia" sheetId="1" r:id="rId1"/>
+    <sheet name="Tadalafilo" sheetId="2" r:id="rId2"/>
+    <sheet name="Macitentan" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -398,10 +399,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="87.83203125" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" customWidth="1"/>
+    <col min="3" max="3" width="84.83203125" customWidth="1"/>
+    <col min="4" max="4" width="94.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -437,7 +450,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM1 MTP004B M0_017.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VDil M0_001.lcd</v>
       </c>
       <c r="B2" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -452,16 +465,16 @@
         <v>DNA</v>
       </c>
       <c r="F2" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VDil M0</v>
       </c>
       <c r="G2" t="str">
-        <v>15/10/2021 11:08:40 p.m.</v>
+        <v>2021-10-15 16:18:04</v>
       </c>
       <c r="H2" t="str">
-        <v>16/10/2021 12:09:31 p.m.</v>
+        <v>2021-10-16 11:55:48</v>
       </c>
       <c r="I2" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J2" t="str">
         <v>20 µL</v>
@@ -469,7 +482,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM1 MTP003B M0_013.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VDil M0_002.lcd</v>
       </c>
       <c r="B3" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -484,16 +497,16 @@
         <v>DNA</v>
       </c>
       <c r="F3" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VDil M0</v>
       </c>
       <c r="G3" t="str">
-        <v>15/10/2021 09:26:02 p.m.</v>
+        <v>2021-10-15 16:43:44</v>
       </c>
       <c r="H3" t="str">
-        <v>16/10/2021 12:06:05 p.m.</v>
+        <v>2021-10-16 11:56:40</v>
       </c>
       <c r="I3" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J3" t="str">
         <v>20 µL</v>
@@ -501,7 +514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM2 MTP002B M0_010.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_003.lcd</v>
       </c>
       <c r="B4" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -516,16 +529,16 @@
         <v>DNA</v>
       </c>
       <c r="F4" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="G4" t="str">
-        <v>15/10/2021 08:09:04 p.m.</v>
+        <v>2021-10-15 17:09:24</v>
       </c>
       <c r="H4" t="str">
-        <v>16/10/2021 12:03:31 p.m.</v>
+        <v>2021-10-16 11:57:31</v>
       </c>
       <c r="I4" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" t="str">
         <v>20 µL</v>
@@ -533,7 +546,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM3 MTP002B M0_011.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_004.lcd</v>
       </c>
       <c r="B5" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -548,16 +561,16 @@
         <v>DNA</v>
       </c>
       <c r="F5" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="G5" t="str">
-        <v>15/10/2021 08:34:42 p.m.</v>
+        <v>2021-10-15 17:35:05</v>
       </c>
       <c r="H5" t="str">
-        <v>16/10/2021 12:04:23 p.m.</v>
+        <v>2021-10-16 11:58:22</v>
       </c>
       <c r="I5" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="str">
         <v>20 µL</v>
@@ -565,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM2 MTP004B M0_018.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_005.lcd</v>
       </c>
       <c r="B6" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -580,16 +593,16 @@
         <v>DNA</v>
       </c>
       <c r="F6" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="G6" t="str">
-        <v>15/10/2021 11:34:20 p.m.</v>
+        <v>2021-10-15 18:00:45</v>
       </c>
       <c r="H6" t="str">
-        <v>16/10/2021 12:10:23 p.m.</v>
+        <v>2021-10-16 11:59:14</v>
       </c>
       <c r="I6" t="str">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J6" t="str">
         <v>20 µL</v>
@@ -597,7 +610,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM2 MTP003B M0_014.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_006.lcd</v>
       </c>
       <c r="B7" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -612,16 +625,16 @@
         <v>DNA</v>
       </c>
       <c r="F7" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="G7" t="str">
-        <v>15/10/2021 09:51:41 p.m.</v>
+        <v>2021-10-15 18:26:24</v>
       </c>
       <c r="H7" t="str">
-        <v>16/10/2021 12:06:57 p.m.</v>
+        <v>2021-10-16 12:00:05</v>
       </c>
       <c r="I7" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J7" t="str">
         <v>20 µL</v>
@@ -629,7 +642,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM3 MTP003B M0_015.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_007.lcd</v>
       </c>
       <c r="B8" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -644,16 +657,16 @@
         <v>DNA</v>
       </c>
       <c r="F8" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="G8" t="str">
-        <v>15/10/2021 10:17:20 p.m.</v>
+        <v>2021-10-15 18:52:04</v>
       </c>
       <c r="H8" t="str">
-        <v>16/10/2021 12:07:48 p.m.</v>
+        <v>2021-10-16 12:00:57</v>
       </c>
       <c r="I8" t="str">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J8" t="str">
         <v>20 µL</v>
@@ -661,7 +674,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM3 MTP004B M0_019.lcd</v>
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS2 M0_008.lcd</v>
       </c>
       <c r="B9" t="str">
         <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
@@ -676,480 +689,1212 @@
         <v>DNA</v>
       </c>
       <c r="F9" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS2 M0</v>
       </c>
       <c r="G9" t="str">
-        <v>16/10/2021 12:00:00 a.m.</v>
+        <v>2021-10-15 19:17:44</v>
       </c>
       <c r="H9" t="str">
-        <v>16/10/2021 12:11:14 p.m.</v>
+        <v>2021-10-16 12:01:48</v>
       </c>
       <c r="I9" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J9" t="str">
         <v>20 µL</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM1 MTP002B M0_009.lcd</v>
+      </c>
+      <c r="B10" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C10" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D10" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E10" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F10" t="str">
+        <v>VM1 MTP002B M0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2021-10-15 19:43:24</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2021-10-16 12:02:40</v>
+      </c>
+      <c r="I10" t="str">
+        <v>4</v>
+      </c>
+      <c r="J10" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM2 MTP002B M0_010.lcd</v>
+      </c>
+      <c r="B11" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C11" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D11" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E11" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F11" t="str">
+        <v>VM2 MTP002B M0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2021-10-15 20:09:04</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2021-10-16 12:03:31</v>
+      </c>
+      <c r="I11" t="str">
+        <v>5</v>
+      </c>
+      <c r="J11" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM3 MTP002B M0_011.lcd</v>
+      </c>
+      <c r="B12" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C12" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D12" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E12" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F12" t="str">
+        <v>VM3 MTP002B M0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2021-10-15 20:34:42</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2021-10-16 12:04:23</v>
+      </c>
+      <c r="I12" t="str">
+        <v>6</v>
+      </c>
+      <c r="J12" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_012.lcd</v>
+      </c>
+      <c r="B13" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C13" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D13" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E13" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F13" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2021-10-15 21:00:22</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2021-10-16 12:05:14</v>
+      </c>
+      <c r="I13" t="str">
+        <v>2</v>
+      </c>
+      <c r="J13" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM1 MTP003B M0_013.lcd</v>
+      </c>
+      <c r="B14" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C14" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D14" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E14" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F14" t="str">
+        <v>VM1 MTP003B M0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2021-10-15 21:26:02</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2021-10-16 12:06:05</v>
+      </c>
+      <c r="I14" t="str">
+        <v>7</v>
+      </c>
+      <c r="J14" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM2 MTP003B M0_014.lcd</v>
+      </c>
+      <c r="B15" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C15" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D15" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E15" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F15" t="str">
+        <v>VM2 MTP003B M0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2021-10-15 21:51:41</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2021-10-16 12:06:57</v>
+      </c>
+      <c r="I15" t="str">
+        <v>8</v>
+      </c>
+      <c r="J15" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM3 MTP003B M0_015.lcd</v>
+      </c>
+      <c r="B16" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C16" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D16" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E16" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F16" t="str">
+        <v>VM3 MTP003B M0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2021-10-15 22:17:20</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2021-10-16 12:07:48</v>
+      </c>
+      <c r="I16" t="str">
+        <v>9</v>
+      </c>
+      <c r="J16" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_016.lcd</v>
+      </c>
+      <c r="B17" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C17" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D17" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E17" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F17" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2021-10-15 22:42:59</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2021-10-16 12:08:40</v>
+      </c>
+      <c r="I17" t="str">
+        <v>2</v>
+      </c>
+      <c r="J17" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM1 MTP004B M0_017.lcd</v>
+      </c>
+      <c r="B18" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C18" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D18" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E18" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F18" t="str">
+        <v>VM1 MTP004B M0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2021-10-15 23:08:40</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2021-10-16 12:09:31</v>
+      </c>
+      <c r="I18" t="str">
+        <v>10</v>
+      </c>
+      <c r="J18" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM2 MTP004B M0_018.lcd</v>
+      </c>
+      <c r="B19" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C19" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D19" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E19" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F19" t="str">
+        <v>VM2 MTP004B M0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2021-10-15 23:34:20</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2021-10-16 12:10:23</v>
+      </c>
+      <c r="I19" t="str">
+        <v>11</v>
+      </c>
+      <c r="J19" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VM3 MTP004B M0_019.lcd</v>
+      </c>
+      <c r="B20" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C20" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D20" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E20" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F20" t="str">
+        <v>VM3 MTP004B M0</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2021-10-16 00:00:00</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2021-10-16 12:11:14</v>
+      </c>
+      <c r="I20" t="str">
+        <v>12</v>
+      </c>
+      <c r="J20" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VS1 M0_020.lcd</v>
+      </c>
+      <c r="B21" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Macitentan Tadalafilo VAL.lcm</v>
+      </c>
+      <c r="C21" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\Mac Tada_Val_M0.lcb</v>
+      </c>
+      <c r="D21" t="str">
+        <v>C:\Nuevos productos\Macitentan Tadafilo\SHI-H\Valoracion\Mes 0\VAL Macitentan Tadalafilo.lsr</v>
+      </c>
+      <c r="E21" t="str">
+        <v>DNA</v>
+      </c>
+      <c r="F21" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2021-10-16 00:25:40</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2021-10-16 12:12:05</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2</v>
+      </c>
+      <c r="J21" t="str">
+        <v>20 µL</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J21"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
         <v>Sample Name</v>
       </c>
       <c r="B1" t="str">
-        <v>Peak#</v>
+        <v>Ret. Time</v>
       </c>
       <c r="C1" t="str">
-        <v>Name</v>
+        <v>Area</v>
       </c>
       <c r="D1" t="str">
-        <v>Ret. Time</v>
+        <v>Theoretical Plate</v>
       </c>
       <c r="E1" t="str">
-        <v>Area</v>
+        <v>Tailing</v>
       </c>
       <c r="F1" t="str">
-        <v>Theoretical Plate</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Tailing</v>
-      </c>
-      <c r="H1" t="str">
         <v>Resolution</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B2" t="str">
-        <v>1</v>
+        <v>4,513</v>
       </c>
       <c r="C2" t="str">
-        <v>Tadalafilo</v>
+        <v>2543285</v>
       </c>
       <c r="D2" t="str">
-        <v>4,564</v>
+        <v>5203</v>
       </c>
       <c r="E2" t="str">
-        <v>2704902</v>
+        <v>1,051</v>
       </c>
       <c r="F2" t="str">
-        <v>5220</v>
-      </c>
-      <c r="G2" t="str">
-        <v>1,030</v>
-      </c>
-      <c r="H2" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B3" t="str">
-        <v>2</v>
+        <v>4,507</v>
       </c>
       <c r="C3" t="str">
-        <v>Macitentan</v>
+        <v>2540697</v>
       </c>
       <c r="D3" t="str">
-        <v>13,950</v>
+        <v>5202</v>
       </c>
       <c r="E3" t="str">
-        <v>803776</v>
+        <v>1,043</v>
       </c>
       <c r="F3" t="str">
-        <v>135353</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0,995</v>
-      </c>
-      <c r="H3" t="str">
-        <v>46,429</v>
+        <v>--</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B4" t="str">
-        <v>1</v>
+        <v>4,509</v>
       </c>
       <c r="C4" t="str">
-        <v>Tadalafilo</v>
+        <v>2538493</v>
       </c>
       <c r="D4" t="str">
-        <v>4,562</v>
+        <v>5203</v>
       </c>
       <c r="E4" t="str">
-        <v>2729139</v>
+        <v>1,048</v>
       </c>
       <c r="F4" t="str">
-        <v>5188</v>
-      </c>
-      <c r="G4" t="str">
-        <v>1,033</v>
-      </c>
-      <c r="H4" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B5" t="str">
-        <v>2</v>
+        <v>4,507</v>
       </c>
       <c r="C5" t="str">
-        <v>Macitentan</v>
+        <v>2541493</v>
       </c>
       <c r="D5" t="str">
-        <v>13,951</v>
+        <v>5205</v>
       </c>
       <c r="E5" t="str">
-        <v>806047</v>
+        <v>1,048</v>
       </c>
       <c r="F5" t="str">
-        <v>135805</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0,993</v>
-      </c>
-      <c r="H5" t="str">
-        <v>46,393</v>
+        <v>--</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B6" t="str">
-        <v>1</v>
+        <v>4,508</v>
       </c>
       <c r="C6" t="str">
-        <v>Tadalafilo</v>
+        <v>2536353</v>
       </c>
       <c r="D6" t="str">
-        <v>4,584</v>
+        <v>5217</v>
       </c>
       <c r="E6" t="str">
-        <v>2749984</v>
+        <v>1,045</v>
       </c>
       <c r="F6" t="str">
-        <v>5207</v>
-      </c>
-      <c r="G6" t="str">
-        <v>1,037</v>
-      </c>
-      <c r="H6" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS2 M0</v>
       </c>
       <c r="B7" t="str">
-        <v>2</v>
+        <v>4,507</v>
       </c>
       <c r="C7" t="str">
-        <v>Macitentan</v>
+        <v>2549344</v>
       </c>
       <c r="D7" t="str">
-        <v>13,944</v>
+        <v>5239</v>
       </c>
       <c r="E7" t="str">
-        <v>815002</v>
+        <v>1,038</v>
       </c>
       <c r="F7" t="str">
-        <v>139914</v>
-      </c>
-      <c r="G7" t="str">
-        <v>0,989</v>
-      </c>
-      <c r="H7" t="str">
-        <v>46,422</v>
+        <v>--</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM1 MTP002B M0</v>
       </c>
       <c r="B8" t="str">
-        <v>1</v>
+        <v>4,527</v>
       </c>
       <c r="C8" t="str">
-        <v>Tadalafilo</v>
+        <v>2653089</v>
       </c>
       <c r="D8" t="str">
-        <v>4,554</v>
+        <v>5147</v>
       </c>
       <c r="E8" t="str">
-        <v>2637116</v>
+        <v>1,038</v>
       </c>
       <c r="F8" t="str">
-        <v>5176</v>
-      </c>
-      <c r="G8" t="str">
-        <v>1,034</v>
-      </c>
-      <c r="H8" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM2 MTP002B M0</v>
       </c>
       <c r="B9" t="str">
-        <v>2</v>
+        <v>4,584</v>
       </c>
       <c r="C9" t="str">
-        <v>Macitentan</v>
+        <v>2749984</v>
       </c>
       <c r="D9" t="str">
-        <v>13,936</v>
+        <v>5207</v>
       </c>
       <c r="E9" t="str">
-        <v>792704</v>
+        <v>1,037</v>
       </c>
       <c r="F9" t="str">
-        <v>137680</v>
-      </c>
-      <c r="G9" t="str">
-        <v>0,989</v>
-      </c>
-      <c r="H9" t="str">
-        <v>46,512</v>
+        <v>--</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM3 MTP002B M0</v>
       </c>
       <c r="B10" t="str">
-        <v>1</v>
+        <v>4,554</v>
       </c>
       <c r="C10" t="str">
-        <v>Tadalafilo</v>
+        <v>2637116</v>
       </c>
       <c r="D10" t="str">
-        <v>4,566</v>
+        <v>5176</v>
       </c>
       <c r="E10" t="str">
-        <v>2685396</v>
+        <v>1,034</v>
       </c>
       <c r="F10" t="str">
-        <v>5213</v>
-      </c>
-      <c r="G10" t="str">
-        <v>1,033</v>
-      </c>
-      <c r="H10" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B11" t="str">
-        <v>2</v>
+        <v>4,558</v>
       </c>
       <c r="C11" t="str">
-        <v>Macitentan</v>
+        <v>2533735</v>
       </c>
       <c r="D11" t="str">
-        <v>13,949</v>
+        <v>5235</v>
       </c>
       <c r="E11" t="str">
-        <v>798078</v>
+        <v>1,048</v>
       </c>
       <c r="F11" t="str">
-        <v>139733</v>
-      </c>
-      <c r="G11" t="str">
-        <v>0,997</v>
-      </c>
-      <c r="H11" t="str">
-        <v>46,661</v>
+        <v>--</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM1 MTP003B M0</v>
       </c>
       <c r="B12" t="str">
-        <v>1</v>
+        <v>4,562</v>
       </c>
       <c r="C12" t="str">
-        <v>Tadalafilo</v>
+        <v>2729139</v>
       </c>
       <c r="D12" t="str">
-        <v>4,560</v>
+        <v>5188</v>
       </c>
       <c r="E12" t="str">
-        <v>2683057</v>
+        <v>1,033</v>
       </c>
       <c r="F12" t="str">
-        <v>5183</v>
-      </c>
-      <c r="G12" t="str">
-        <v>1,034</v>
-      </c>
-      <c r="H12" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM2 MTP003B M0</v>
       </c>
       <c r="B13" t="str">
-        <v>2</v>
+        <v>4,560</v>
       </c>
       <c r="C13" t="str">
-        <v>Macitentan</v>
+        <v>2683057</v>
       </c>
       <c r="D13" t="str">
-        <v>13,949</v>
+        <v>5183</v>
       </c>
       <c r="E13" t="str">
-        <v>801092</v>
+        <v>1,034</v>
       </c>
       <c r="F13" t="str">
-        <v>139361</v>
-      </c>
-      <c r="G13" t="str">
-        <v>0,995</v>
-      </c>
-      <c r="H13" t="str">
-        <v>46,616</v>
+        <v>--</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM3 MTP003B M0</v>
       </c>
       <c r="B14" t="str">
-        <v>1</v>
+        <v>4,561</v>
       </c>
       <c r="C14" t="str">
-        <v>Tadalafilo</v>
+        <v>2630253</v>
       </c>
       <c r="D14" t="str">
-        <v>4,561</v>
+        <v>5190</v>
       </c>
       <c r="E14" t="str">
-        <v>2630253</v>
+        <v>1,031</v>
       </c>
       <c r="F14" t="str">
-        <v>5190</v>
-      </c>
-      <c r="G14" t="str">
-        <v>1,031</v>
-      </c>
-      <c r="H14" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VS1 M0</v>
       </c>
       <c r="B15" t="str">
-        <v>2</v>
+        <v>4,566</v>
       </c>
       <c r="C15" t="str">
-        <v>Macitentan</v>
+        <v>2529664</v>
       </c>
       <c r="D15" t="str">
-        <v>13,945</v>
+        <v>5312</v>
       </c>
       <c r="E15" t="str">
-        <v>793880</v>
+        <v>1,033</v>
       </c>
       <c r="F15" t="str">
-        <v>138942</v>
-      </c>
-      <c r="G15" t="str">
-        <v>0,987</v>
-      </c>
-      <c r="H15" t="str">
-        <v>46,581</v>
+        <v>--</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM1 MTP004B M0</v>
       </c>
       <c r="B16" t="str">
-        <v>1</v>
+        <v>4,564</v>
       </c>
       <c r="C16" t="str">
-        <v>Tadalafilo</v>
+        <v>2704902</v>
       </c>
       <c r="D16" t="str">
-        <v>4,565</v>
+        <v>5220</v>
       </c>
       <c r="E16" t="str">
-        <v>2701497</v>
+        <v>1,030</v>
       </c>
       <c r="F16" t="str">
-        <v>5197</v>
-      </c>
-      <c r="G16" t="str">
-        <v>1,028</v>
-      </c>
-      <c r="H16" t="str">
         <v>--</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>PDA Ch1 260nm</v>
+        <v>VM2 MTP004B M0</v>
       </c>
       <c r="B17" t="str">
-        <v>2</v>
+        <v>4,566</v>
       </c>
       <c r="C17" t="str">
-        <v>Macitentan</v>
+        <v>2685396</v>
       </c>
       <c r="D17" t="str">
-        <v>13,948</v>
+        <v>5213</v>
       </c>
       <c r="E17" t="str">
-        <v>795877</v>
+        <v>1,033</v>
       </c>
       <c r="F17" t="str">
-        <v>138895</v>
-      </c>
-      <c r="G17" t="str">
-        <v>0,991</v>
-      </c>
-      <c r="H17" t="str">
-        <v>46,565</v>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>VM3 MTP004B M0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>4,565</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2701497</v>
+      </c>
+      <c r="D18" t="str">
+        <v>5197</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1,028</v>
+      </c>
+      <c r="F18" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B19" t="str">
+        <v>4,568</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2526870</v>
+      </c>
+      <c r="D19" t="str">
+        <v>5317</v>
+      </c>
+      <c r="E19" t="str">
+        <v>1,031</v>
+      </c>
+      <c r="F19" t="str">
+        <v>--</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Sample Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Ret. Time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Area</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Theoretical Plate</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Tailing</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Resolution</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>13,883</v>
+      </c>
+      <c r="C2" t="str">
+        <v>834951</v>
+      </c>
+      <c r="D2" t="str">
+        <v>136329</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0,986</v>
+      </c>
+      <c r="F2" t="str">
+        <v>46,776</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>13,878</v>
+      </c>
+      <c r="C3" t="str">
+        <v>834166</v>
+      </c>
+      <c r="D3" t="str">
+        <v>132681</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0,988</v>
+      </c>
+      <c r="F3" t="str">
+        <v>46,580</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B4" t="str">
+        <v>13,872</v>
+      </c>
+      <c r="C4" t="str">
+        <v>833625</v>
+      </c>
+      <c r="D4" t="str">
+        <v>135629</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0,985</v>
+      </c>
+      <c r="F4" t="str">
+        <v>46,736</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>13,868</v>
+      </c>
+      <c r="C5" t="str">
+        <v>832909</v>
+      </c>
+      <c r="D5" t="str">
+        <v>132813</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0,987</v>
+      </c>
+      <c r="F5" t="str">
+        <v>46,563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B6" t="str">
+        <v>13,876</v>
+      </c>
+      <c r="C6" t="str">
+        <v>832435</v>
+      </c>
+      <c r="D6" t="str">
+        <v>132968</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0,991</v>
+      </c>
+      <c r="F6" t="str">
+        <v>46,618</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>VS2 M0</v>
+      </c>
+      <c r="B7" t="str">
+        <v>13,872</v>
+      </c>
+      <c r="C7" t="str">
+        <v>816601</v>
+      </c>
+      <c r="D7" t="str">
+        <v>134970</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0,986</v>
+      </c>
+      <c r="F7" t="str">
+        <v>46,809</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>VM1 MTP002B M0</v>
+      </c>
+      <c r="B8" t="str">
+        <v>13,903</v>
+      </c>
+      <c r="C8" t="str">
+        <v>803989</v>
+      </c>
+      <c r="D8" t="str">
+        <v>135970</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0,986</v>
+      </c>
+      <c r="F8" t="str">
+        <v>46,507</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>VM2 MTP002B M0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>13,944</v>
+      </c>
+      <c r="C9" t="str">
+        <v>815002</v>
+      </c>
+      <c r="D9" t="str">
+        <v>139914</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0,989</v>
+      </c>
+      <c r="F9" t="str">
+        <v>46,422</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>VM3 MTP002B M0</v>
+      </c>
+      <c r="B10" t="str">
+        <v>13,936</v>
+      </c>
+      <c r="C10" t="str">
+        <v>792704</v>
+      </c>
+      <c r="D10" t="str">
+        <v>137680</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0,989</v>
+      </c>
+      <c r="F10" t="str">
+        <v>46,512</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B11" t="str">
+        <v>13,949</v>
+      </c>
+      <c r="C11" t="str">
+        <v>832635</v>
+      </c>
+      <c r="D11" t="str">
+        <v>140293</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0,995</v>
+      </c>
+      <c r="F11" t="str">
+        <v>46,841</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>VM1 MTP003B M0</v>
+      </c>
+      <c r="B12" t="str">
+        <v>13,951</v>
+      </c>
+      <c r="C12" t="str">
+        <v>806047</v>
+      </c>
+      <c r="D12" t="str">
+        <v>135805</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0,993</v>
+      </c>
+      <c r="F12" t="str">
+        <v>46,393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>VM2 MTP003B M0</v>
+      </c>
+      <c r="B13" t="str">
+        <v>13,949</v>
+      </c>
+      <c r="C13" t="str">
+        <v>801092</v>
+      </c>
+      <c r="D13" t="str">
+        <v>139361</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0,995</v>
+      </c>
+      <c r="F13" t="str">
+        <v>46,616</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>VM3 MTP003B M0</v>
+      </c>
+      <c r="B14" t="str">
+        <v>13,945</v>
+      </c>
+      <c r="C14" t="str">
+        <v>793880</v>
+      </c>
+      <c r="D14" t="str">
+        <v>138942</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0,987</v>
+      </c>
+      <c r="F14" t="str">
+        <v>46,581</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B15" t="str">
+        <v>13,950</v>
+      </c>
+      <c r="C15" t="str">
+        <v>831970</v>
+      </c>
+      <c r="D15" t="str">
+        <v>136286</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0,994</v>
+      </c>
+      <c r="F15" t="str">
+        <v>46,719</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>VM1 MTP004B M0</v>
+      </c>
+      <c r="B16" t="str">
+        <v>13,950</v>
+      </c>
+      <c r="C16" t="str">
+        <v>803776</v>
+      </c>
+      <c r="D16" t="str">
+        <v>135353</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0,995</v>
+      </c>
+      <c r="F16" t="str">
+        <v>46,429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>VM2 MTP004B M0</v>
+      </c>
+      <c r="B17" t="str">
+        <v>13,949</v>
+      </c>
+      <c r="C17" t="str">
+        <v>798078</v>
+      </c>
+      <c r="D17" t="str">
+        <v>139733</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0,997</v>
+      </c>
+      <c r="F17" t="str">
+        <v>46,661</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>VM3 MTP004B M0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>13,948</v>
+      </c>
+      <c r="C18" t="str">
+        <v>795877</v>
+      </c>
+      <c r="D18" t="str">
+        <v>138895</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0,991</v>
+      </c>
+      <c r="F18" t="str">
+        <v>46,565</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>VS1 M0</v>
+      </c>
+      <c r="B19" t="str">
+        <v>13,952</v>
+      </c>
+      <c r="C19" t="str">
+        <v>831114</v>
+      </c>
+      <c r="D19" t="str">
+        <v>136445</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0,993</v>
+      </c>
+      <c r="F19" t="str">
+        <v>46,722</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
   </ignoredErrors>
 </worksheet>
 </file>